--- a/excel/Описание_работ/6/Обществознание/KS.xlsx
+++ b/excel/Описание_работ/6/Обществознание/KS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Код</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
   </si>
 </sst>
 </file>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,81 +646,101 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>45</v>
       </c>
     </row>
